--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>spsavebaneditlog deadlog analyst</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -107,13 +113,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowCount="1">
+  <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="What"/>
-    <tableColumn id="3" name="When" dataDxfId="0"/>
-    <tableColumn id="4" name="Hours"/>
+    <tableColumn id="3" name="When" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="4" name="Hours" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(D2:D7)</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="5" name="Who"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -407,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +525,30 @@
       </c>
       <c r="E6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42992</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>spsavebaneditlog deadlog analyst</t>
+  </si>
+  <si>
+    <t>simulate call spsavebaneditlog</t>
   </si>
 </sst>
 </file>
@@ -113,14 +116,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="What"/>
     <tableColumn id="3" name="When" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="4" name="Hours" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D7)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D8)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Who"/>
   </tableColumns>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,10 +548,27 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42993</v>
+      </c>
       <c r="D8">
-        <f>SUM(D2:D7)</f>
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9">
+        <f>SUM(D2:D8)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="TimeSpend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -53,6 +54,21 @@
   </si>
   <si>
     <t>simulate call spsavebaneditlog</t>
+  </si>
+  <si>
+    <t>When save form, it show 99% completed and then no response</t>
+  </si>
+  <si>
+    <t>Esteimate</t>
+  </si>
+  <si>
+    <t>Tables which have picture occupy too much storage</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>4 hours</t>
   </si>
 </sst>
 </file>
@@ -95,7 +111,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -116,12 +138,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowCount="1">
+  <autoFilter ref="A1:C8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="#"/>
+    <tableColumn id="2" name="What"/>
+    <tableColumn id="3" name="Esteimate" dataDxfId="3" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="What"/>
-    <tableColumn id="3" name="When" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="3" name="When" dataDxfId="1" totalsRowDxfId="2"/>
     <tableColumn id="4" name="Hours" totalsRowFunction="custom">
       <totalsRowFormula>SUM(D2:D8)</totalsRowFormula>
     </tableColumn>
@@ -418,10 +452,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LRESTRICTED</oddFooter>
+    <evenFooter>&amp;LRESTRICTED</evenFooter>
+    <firstFooter>&amp;LRESTRICTED</firstFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
